--- a/data/2022-03-16 data_inntekt_og_did.xlsx
+++ b/data/2022-03-16 data_inntekt_og_did.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://navno-my.sharepoint.com/personal/eirik_lamoy_nav_no/Documents/Documents/R-prosjekter/maxKG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{2BD9D6CD-DCE2-4DEB-AF0B-692C747D9C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D429E39-242D-43D0-A29F-CBC923546586}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{2BD9D6CD-DCE2-4DEB-AF0B-692C747D9C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00C0B03F-27E9-4D2B-88CF-E25E4DB9D78B}"/>
   <bookViews>
-    <workbookView xWindow="57420" yWindow="960" windowWidth="21600" windowHeight="18375" xr2:uid="{28C9929C-A00B-4D09-B1F7-DBA8AE98EE21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28C9929C-A00B-4D09-B1F7-DBA8AE98EE21}"/>
   </bookViews>
   <sheets>
-    <sheet name="mottaker" sheetId="1" r:id="rId1"/>
-    <sheet name="arlig_mottaker" sheetId="3" r:id="rId2"/>
-    <sheet name="husholdning" sheetId="2" r:id="rId3"/>
+    <sheet name="faktisk_barnetillegg" sheetId="4" r:id="rId1"/>
+    <sheet name="mottaker" sheetId="1" r:id="rId2"/>
+    <sheet name="arlig_mottaker" sheetId="3" r:id="rId3"/>
+    <sheet name="husholdning" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mottaker!$A$1:$E$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mottaker!$A$1:$E$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="11">
   <si>
     <t>ar</t>
   </si>
@@ -67,6 +68,12 @@
   </si>
   <si>
     <t>ny kontroll og klustra</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>utb_bt</t>
   </si>
 </sst>
 </file>
@@ -553,13 +560,18 @@
     <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - uthevingsfarge 1" xfId="1" xr:uid="{CE4B0248-757B-4252-90FE-870EE6D39A6D}"/>
@@ -914,10 +926,344 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9908EE6A-DBA9-4764-8F19-3E376CFC34BB}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2015</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.59227154983541108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2016</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.53231286907565645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2017</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.48333099586148459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2018</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.453407001181935</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2019</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.41848403587113631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.39518488139498231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.38429605926228888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2015</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.86040506366128466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2016</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.74196127731433459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2017</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.6420569123369767</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2018</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.56977996118388696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2019</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.52653972498485035</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.49490989356469051</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.47273156774746228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>0</v>
+      </c>
+      <c r="B16" s="6">
+        <v>2015</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.64931920528611098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>0</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2016</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.59468141685458009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>0</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2017</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.54609167923204638</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>0</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2018</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.51882744978138029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>0</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2019</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.48158147473268742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>0</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.45548972685248229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>0</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.44560559738939681</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>1</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2015</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.86040506366128466</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2016</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.74196127731433459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>1</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2017</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.6420569123369767</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>1</v>
+      </c>
+      <c r="B26" s="6">
+        <v>2018</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.56977996118388696</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>1</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2019</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.52653972498485035</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>1</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.49490989356469051</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>1</v>
+      </c>
+      <c r="B29" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.47273156774746228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6B095B-4AB0-4049-9353-4B86F566A732}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -1752,7 +2098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D26A526-CA8A-40F4-A7E4-C4610EA5960D}">
   <dimension ref="A1:E37"/>
   <sheetViews>
@@ -2396,7 +2742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F8362C-7E18-44FA-8768-3B5577ECCEFA}">
   <dimension ref="A1:E25"/>
   <sheetViews>

--- a/data/2022-03-16 data_inntekt_og_did.xlsx
+++ b/data/2022-03-16 data_inntekt_og_did.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://navno-my.sharepoint.com/personal/eirik_lamoy_nav_no/Documents/Documents/R-prosjekter/maxKG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{2BD9D6CD-DCE2-4DEB-AF0B-692C747D9C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00C0B03F-27E9-4D2B-88CF-E25E4DB9D78B}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="8_{2BD9D6CD-DCE2-4DEB-AF0B-692C747D9C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4C33DE4-411D-4444-8B4F-1F81D825AA22}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28C9929C-A00B-4D09-B1F7-DBA8AE98EE21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{28C9929C-A00B-4D09-B1F7-DBA8AE98EE21}"/>
   </bookViews>
   <sheets>
-    <sheet name="faktisk_barnetillegg" sheetId="4" r:id="rId1"/>
-    <sheet name="mottaker" sheetId="1" r:id="rId2"/>
-    <sheet name="arlig_mottaker" sheetId="3" r:id="rId3"/>
-    <sheet name="husholdning" sheetId="2" r:id="rId4"/>
+    <sheet name="mottaker" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="regresjon_inntekt" sheetId="8" r:id="rId3"/>
+    <sheet name="mottakere_85" sheetId="6" r:id="rId4"/>
+    <sheet name="husholdning" sheetId="2" r:id="rId5"/>
+    <sheet name="arlig_mottaker" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mottaker!$A$1:$E$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mottaker!$A$1:$E$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="15">
   <si>
     <t>ar</t>
   </si>
@@ -70,18 +72,31 @@
     <t>ny kontroll og klustra</t>
   </si>
   <si>
+    <t>Ingen trend</t>
+  </si>
+  <si>
+    <t>Trend overgangsgruppe</t>
+  </si>
+  <si>
     <t>gr</t>
   </si>
   <si>
-    <t>utb_bt</t>
+    <t>År</t>
+  </si>
+  <si>
+    <t>Estimat</t>
+  </si>
+  <si>
+    <t>st.avvik</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -567,11 +582,11 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - uthevingsfarge 1" xfId="1" xr:uid="{CE4B0248-757B-4252-90FE-870EE6D39A6D}"/>
@@ -926,345 +941,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9908EE6A-DBA9-4764-8F19-3E376CFC34BB}">
-  <dimension ref="A1:C29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>2015</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.59227154983541108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2016</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.53231286907565645</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2017</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.48333099586148459</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2018</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.453407001181935</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2019</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.41848403587113631</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>0</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.39518488139498231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>0</v>
-      </c>
-      <c r="B8" s="4">
-        <v>2021</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.38429605926228888</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4">
-        <v>2015</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.86040506366128466</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4">
-        <v>2016</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.74196127731433459</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4">
-        <v>2017</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.6420569123369767</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4">
-        <v>2018</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.56977996118388696</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4">
-        <v>2019</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.52653972498485035</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4">
-        <v>2020</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.49490989356469051</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4">
-        <v>2021</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.47273156774746228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>0</v>
-      </c>
-      <c r="B16" s="6">
-        <v>2015</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.64931920528611098</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>0</v>
-      </c>
-      <c r="B17" s="6">
-        <v>2016</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.59468141685458009</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>0</v>
-      </c>
-      <c r="B18" s="6">
-        <v>2017</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0.54609167923204638</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>0</v>
-      </c>
-      <c r="B19" s="6">
-        <v>2018</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0.51882744978138029</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>0</v>
-      </c>
-      <c r="B20" s="6">
-        <v>2019</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0.48158147473268742</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>0</v>
-      </c>
-      <c r="B21" s="6">
-        <v>2020</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0.45548972685248229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>0</v>
-      </c>
-      <c r="B22" s="6">
-        <v>2021</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0.44560559738939681</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>1</v>
-      </c>
-      <c r="B23" s="6">
-        <v>2015</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0.86040506366128466</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>1</v>
-      </c>
-      <c r="B24" s="6">
-        <v>2016</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0.74196127731433459</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>1</v>
-      </c>
-      <c r="B25" s="6">
-        <v>2017</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0.6420569123369767</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>1</v>
-      </c>
-      <c r="B26" s="6">
-        <v>2018</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0.56977996118388696</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>1</v>
-      </c>
-      <c r="B27" s="6">
-        <v>2019</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0.52653972498485035</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>1</v>
-      </c>
-      <c r="B28" s="6">
-        <v>2020</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0.49490989356469051</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>1</v>
-      </c>
-      <c r="B29" s="6">
-        <v>2021</v>
-      </c>
-      <c r="C29" s="6">
-        <v>0.47273156774746228</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6B095B-4AB0-4049-9353-4B86F566A732}">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2098,7 +1779,936 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A9D8C0-778D-428C-9C2D-0CBF45F63A5D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF36259B-DF49-48D7-B302-3E8168AFAC3A}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2016</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2.0621492897765489E-4</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1.0591793570969999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="B3" s="5">
+        <f>B2+1</f>
+        <v>2017</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.5837956806151752E-4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1.3426730223111091E-3</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="B4" s="5">
+        <f>B3+1</f>
+        <v>2018</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.06680939833137E-3</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.4962433748974199E-3</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B4+1</f>
+        <v>2019</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-2.6831829904150339E-5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1.5522777016947389E-3</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="B6" s="5">
+        <f>B5+1</f>
+        <v>2020</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.9962854317023829E-4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.5187929329132451E-3</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="B7" s="5">
+        <f>B6+1</f>
+        <v>2021</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5.9670202110062576E-4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.504974150464818E-3</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2016</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5.2874889198331262E-4</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.1207668058240889E-3</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="B9" s="5">
+        <f>B8+1</f>
+        <v>2017</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3.2320143309470112E-4</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1.5095253468868041E-3</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="B10" s="5">
+        <f>B9+1</f>
+        <v>2018</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.7231003325687835E-3</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1.6675817056432259E-3</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B10+1</f>
+        <v>2019</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5.822220149878099E-4</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1.817224710256887E-3</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="B12" s="5">
+        <f>B11+1</f>
+        <v>2020</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9.2690913429915867E-4</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1.715342257472564E-3</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+1</f>
+        <v>2021</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5.8658928456845061E-4</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1.7106616032091519E-3</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FB18BE-9017-495C-A0F1-53A59F1BD9A8}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2016</v>
+      </c>
+      <c r="B2" s="6">
+        <v>4.3805362024547378E-4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1.0519368231738161E-3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2017</v>
+      </c>
+      <c r="B3" s="6">
+        <v>8.3762927603492354E-4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.3351002309247241E-3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <f t="shared" ref="A4:A7" si="0">A3+1</f>
+        <v>2018</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3.410241688702811E-3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.49569502658938E-3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1.355380276548052E-3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.550765722280122E-3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1.53108905011571E-3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.520489721995838E-3</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2.0089387775664232E-3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.5086331218915081E-3</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="6">
+        <v>-4.1442083434194138E-4</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1.056261164008659E-3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f>A8+1</f>
+        <v>2017</v>
+      </c>
+      <c r="B9" s="6">
+        <v>-5.2366946826785943E-4</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1.3943083464761799E-3</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f t="shared" ref="A10:A13" si="1">A9+1</f>
+        <v>2018</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1.7681333587846739E-3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1.5976105587162061E-3</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f t="shared" si="1"/>
+        <v>2019</v>
+      </c>
+      <c r="B11" s="6">
+        <v>-3.8754709559558898E-4</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1.6759567599524991E-3</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+      <c r="B12" s="6">
+        <v>-2.9862735766812698E-4</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1.67268209716039E-3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f t="shared" si="1"/>
+        <v>2021</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1.0784385224123231E-5</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1.6805707243013901E-3</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F8362C-7E18-44FA-8768-3B5577ECCEFA}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2016</v>
+      </c>
+      <c r="B2">
+        <v>0.21012076381930939</v>
+      </c>
+      <c r="C2">
+        <v>0.1261873630820956</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2017</v>
+      </c>
+      <c r="B3">
+        <v>0.38146060019014782</v>
+      </c>
+      <c r="C3">
+        <v>0.12512231933719731</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2018</v>
+      </c>
+      <c r="B4">
+        <v>0.60671067581112015</v>
+      </c>
+      <c r="C4">
+        <v>0.1234123339717601</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2019</v>
+      </c>
+      <c r="B5">
+        <v>0.49696255269075279</v>
+      </c>
+      <c r="C5">
+        <v>0.1180976482396784</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2020</v>
+      </c>
+      <c r="B6">
+        <v>0.60708052214663011</v>
+      </c>
+      <c r="C6">
+        <v>0.1159909866231186</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2021</v>
+      </c>
+      <c r="B7">
+        <v>0.61822705622904328</v>
+      </c>
+      <c r="C7">
+        <v>0.12721268389242599</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>8.2673909295646372E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.1065676559605126</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0.1364532017132804</v>
+      </c>
+      <c r="C9">
+        <v>0.1062512576431176</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0.2783626532179394</v>
+      </c>
+      <c r="C10">
+        <v>0.10531370104348579</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.18587824238061501</v>
+      </c>
+      <c r="C11">
+        <v>0.1012773935432611</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.24962470009360949</v>
+      </c>
+      <c r="C12">
+        <v>9.9675093712972132E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0.30010276611628622</v>
+      </c>
+      <c r="C13">
+        <v>0.115720643091918</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2016</v>
+      </c>
+      <c r="B14">
+        <v>0.1179319135925667</v>
+      </c>
+      <c r="C14">
+        <v>0.135860791540235</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2017</v>
+      </c>
+      <c r="B15">
+        <v>0.23510258132638681</v>
+      </c>
+      <c r="C15">
+        <v>0.13452220248504559</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2018</v>
+      </c>
+      <c r="B16">
+        <v>0.42214226207984029</v>
+      </c>
+      <c r="C16">
+        <v>0.13222469398995629</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2019</v>
+      </c>
+      <c r="B17">
+        <v>0.29443474370887851</v>
+      </c>
+      <c r="C17">
+        <v>0.1266235728401095</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2020</v>
+      </c>
+      <c r="B18">
+        <v>0.41528311589814793</v>
+      </c>
+      <c r="C18">
+        <v>0.1242234712698584</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2021</v>
+      </c>
+      <c r="B19">
+        <v>0.42211522238664922</v>
+      </c>
+      <c r="C19">
+        <v>0.13551224126096759</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2016</v>
+      </c>
+      <c r="B20">
+        <v>3.1318063604939252E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.11508977255082441</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2017</v>
+      </c>
+      <c r="B21">
+        <v>6.1282889229671823E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.1147909395470687</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2018</v>
+      </c>
+      <c r="B22">
+        <v>0.17729492621517989</v>
+      </c>
+      <c r="C22">
+        <v>0.11303597102477581</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2019</v>
+      </c>
+      <c r="B23">
+        <v>7.2506154196899514E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.10880134138003569</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2020</v>
+      </c>
+      <c r="B24">
+        <v>0.1516151733887493</v>
+      </c>
+      <c r="C24">
+        <v>0.1069818859131702</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2021</v>
+      </c>
+      <c r="B25">
+        <v>0.1951718934522195</v>
+      </c>
+      <c r="C25">
+        <v>0.12323333889731319</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D26A526-CA8A-40F4-A7E4-C4610EA5960D}">
   <dimension ref="A1:E37"/>
   <sheetViews>
@@ -2740,444 +3350,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F8362C-7E18-44FA-8768-3B5577ECCEFA}">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2016</v>
-      </c>
-      <c r="B2">
-        <v>0.21012076381930939</v>
-      </c>
-      <c r="C2">
-        <v>0.1261873630820956</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2017</v>
-      </c>
-      <c r="B3">
-        <v>0.38146060019014782</v>
-      </c>
-      <c r="C3">
-        <v>0.12512231933719731</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2018</v>
-      </c>
-      <c r="B4">
-        <v>0.60671067581112015</v>
-      </c>
-      <c r="C4">
-        <v>0.1234123339717601</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2019</v>
-      </c>
-      <c r="B5">
-        <v>0.49696255269075279</v>
-      </c>
-      <c r="C5">
-        <v>0.1180976482396784</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2020</v>
-      </c>
-      <c r="B6">
-        <v>0.60708052214663011</v>
-      </c>
-      <c r="C6">
-        <v>0.1159909866231186</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2021</v>
-      </c>
-      <c r="B7">
-        <v>0.61822705622904328</v>
-      </c>
-      <c r="C7">
-        <v>0.12721268389242599</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>8.2673909295646372E-2</v>
-      </c>
-      <c r="C8">
-        <v>0.1065676559605126</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <v>0.1364532017132804</v>
-      </c>
-      <c r="C9">
-        <v>0.1062512576431176</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>0.2783626532179394</v>
-      </c>
-      <c r="C10">
-        <v>0.10531370104348579</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>0.18587824238061501</v>
-      </c>
-      <c r="C11">
-        <v>0.1012773935432611</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12">
-        <v>0.24962470009360949</v>
-      </c>
-      <c r="C12">
-        <v>9.9675093712972132E-2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2021</v>
-      </c>
-      <c r="B13">
-        <v>0.30010276611628622</v>
-      </c>
-      <c r="C13">
-        <v>0.115720643091918</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2016</v>
-      </c>
-      <c r="B14">
-        <v>0.1179319135925667</v>
-      </c>
-      <c r="C14">
-        <v>0.135860791540235</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2017</v>
-      </c>
-      <c r="B15">
-        <v>0.23510258132638681</v>
-      </c>
-      <c r="C15">
-        <v>0.13452220248504559</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2018</v>
-      </c>
-      <c r="B16">
-        <v>0.42214226207984029</v>
-      </c>
-      <c r="C16">
-        <v>0.13222469398995629</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2019</v>
-      </c>
-      <c r="B17">
-        <v>0.29443474370887851</v>
-      </c>
-      <c r="C17">
-        <v>0.1266235728401095</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2020</v>
-      </c>
-      <c r="B18">
-        <v>0.41528311589814793</v>
-      </c>
-      <c r="C18">
-        <v>0.1242234712698584</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2021</v>
-      </c>
-      <c r="B19">
-        <v>0.42211522238664922</v>
-      </c>
-      <c r="C19">
-        <v>0.13551224126096759</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2016</v>
-      </c>
-      <c r="B20">
-        <v>3.1318063604939252E-2</v>
-      </c>
-      <c r="C20">
-        <v>0.11508977255082441</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2017</v>
-      </c>
-      <c r="B21">
-        <v>6.1282889229671823E-2</v>
-      </c>
-      <c r="C21">
-        <v>0.1147909395470687</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2018</v>
-      </c>
-      <c r="B22">
-        <v>0.17729492621517989</v>
-      </c>
-      <c r="C22">
-        <v>0.11303597102477581</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2019</v>
-      </c>
-      <c r="B23">
-        <v>7.2506154196899514E-2</v>
-      </c>
-      <c r="C23">
-        <v>0.10880134138003569</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2020</v>
-      </c>
-      <c r="B24">
-        <v>0.1516151733887493</v>
-      </c>
-      <c r="C24">
-        <v>0.1069818859131702</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2021</v>
-      </c>
-      <c r="B25">
-        <v>0.1951718934522195</v>
-      </c>
-      <c r="C25">
-        <v>0.12323333889731319</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25">
-        <v>0.8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>